--- a/results/I3_N5_M2_T45_C200_DepCentral_s4_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.1118841340303</v>
+        <v>34.88759962057448</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.42188413403032</v>
+        <v>28.88759962057447</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.152966608362965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1.152966608362965</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123.69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,17 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -860,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.05123405644787</v>
+        <v>35.33522585468121</v>
       </c>
     </row>
     <row r="5">
@@ -876,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.43528232449546</v>
+        <v>33.71927412272879</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.46902814888774</v>
+        <v>36.65075183719856</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +903,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>39.8160670982627</v>
+        <v>41.10005889649603</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.6146379281073</v>
+        <v>41.79636161641812</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +953,20 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>198.9800000000014</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>211.685</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>214.3</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>220.545</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>215.315</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>55.99500000000073</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>58.4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>57.00500000000073</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>53.86000000000073</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>55.98000000000073</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>118.4700000000008</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>128.7149999999993</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>119.6649999999994</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>127.0699999999994</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>130.0449999999993</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>170.4799999999998</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>173.2749999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>175.1699999999998</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>173.5649999999998</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>163.0549999999998</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>198.9800000000014</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>211.685</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>220.545</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>215.315</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4799999999998</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>173.2749999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>175.1699999999998</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>173.5649999999998</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>163.0549999999998</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>20.545</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>15.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1888,7 +1913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,42 +1943,9 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
